--- a/biology/Botanique/Les_Rebelles_de_la_forêt_3/Les_Rebelles_de_la_forêt_3.xlsx
+++ b/biology/Botanique/Les_Rebelles_de_la_forêt_3/Les_Rebelles_de_la_forêt_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Rebelles_de_la_for%C3%AAt_3</t>
+          <t>Les_Rebelles_de_la_forêt_3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Rebelles de la forêt 3 (Open Season 3) est un long métrage d'animation américain en images de synthèse, réalisé par Cody Cameron et sorti directement en vidéo en 2010.
 C'est le troisième opus de la série après Les Rebelles de la forêt (2006) et Les Rebelles de la forêt 2 (2008).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Rebelles_de_la_for%C3%AAt_3</t>
+          <t>Les_Rebelles_de_la_forêt_3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Boog, le grizzly, se retrouvant tout seul pour sa virée entre «mecs», car Elliot doit s'occuper de ses 3 nouveaux enfants, Boog cherche un nouvel endroit pour se sentir mieux et rencontre un cirque avec un grizzly nommé Doug. Ce dernier lui propose un échange Boog se fait passer pour lui dans le cirque et Doug se rend à la forêt de Boog ou il ursupe son identité, jusqu'au retour de Gisèle ou elle remarque immédiatement la supercherie et Doog avoue la vérité tout les animaux de la forêt partent donc à sa recherche. En parallèle, la bande des animaux domestique (Monsieur Saucisse et ses amis) partent également à sa recherche après l'avoir vu à la télévision dans un cirque. Quand les deux bandent retrouvent enfin Boog. Il le remarque heureux avec une nouvelle grizzly nommée Ursa. Elliot lui incite à partir en Russie avec elle pour qu'il soit heureux. Mais toute la bande finit par retourner dans la forêt et Boog finit enfin par faire sa virée entre «mecs».
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Rebelles_de_la_for%C3%AAt_3</t>
+          <t>Les_Rebelles_de_la_forêt_3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Open Season 3
 Titre français : Les Rebelles de la Forêt 3
@@ -566,7 +582,7 @@
 Dates de sortie :
  Russie : 21 octobre 2010
  États-Unis : 25 janvier 2011
- France : 5 janvier 2011 (en DVD et Blu-ray) [1].</t>
+ France : 5 janvier 2011 (en DVD et Blu-ray) .</t>
         </is>
       </c>
     </row>
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Rebelles_de_la_for%C3%AAt_3</t>
+          <t>Les_Rebelles_de_la_forêt_3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,8 +612,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Voix originales
-Matthew J. Munn : Boog / Doug
+          <t>Voix originales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Matthew J. Munn : Boog / Doug
 Nika Futterman : Rosie
 Maddie W. Taylor : Ian / Reilly / Buddy / Deni / Elliot
 Melissa Sturm : Giselle / Ursa
@@ -614,9 +635,43 @@
 Fred Stoller : Stanley
 Sean Mullen : Roger
 Crispin Glover : Fifi
-Michelle Murdocca : Maria
-Voix françaises
-Paul Borne : Boog
+Michelle Murdocca : Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_Rebelles_de_la_forêt_3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Rebelles_de_la_for%C3%AAt_3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Paul Borne : Boog
 Julien Courbey : Elliot
 Frantz Confiac : Doug
 Cécile Nodie : Gisele
